--- a/biology/Botanique/Scabieuse_colombaire/Scabieuse_colombaire.xlsx
+++ b/biology/Botanique/Scabieuse_colombaire/Scabieuse_colombaire.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Scabiosa columbaria
-La scabieuse colombaire (Scabiosa columbaria) est une espèce de plantes herbacées vivaces de la famille des Dipsacaceae selon la classification classique de Cronquist (1981)[1], de la famille des Caprifoliacées selon la classification phylogénétique.
+La scabieuse colombaire (Scabiosa columbaria) est une espèce de plantes herbacées vivaces de la famille des Dipsacaceae selon la classification classique de Cronquist (1981), de la famille des Caprifoliacées selon la classification phylogénétique.
 Elle est originaire d'Europe, d'Asie tempérée ainsi que d'Algérie et du Maroc.
 </t>
         </is>
